--- a/公司本机环境.xlsx
+++ b/公司本机环境.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="57">
   <si>
     <t>系统</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -147,10 +147,6 @@
   </si>
   <si>
     <t>/home/bear/www</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>I66</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -218,10 +214,6 @@
   </si>
   <si>
     <t>Islave</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>CentOS release 6.5 (Final)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -245,21 +237,12 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>公司台式电脑虚拟机u32
-img_sync从图片同步253.10</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>nfs主服务 2049等
 rsync主
 image 8080</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>192.168.253.10</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>192.168.253.4
 可能会变</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -270,6 +253,38 @@
   </si>
   <si>
     <t>无</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CentOS release 6.6 (Final)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>公司笔记本电脑虚拟机ISlave
+img_sync从图片同步253.10</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>192.168.253.10</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>I66</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>rsync从</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>无</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>√ php 5.4.35
+redis
+gearman
+imagick 3.1.2</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -666,7 +681,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D12" sqref="D12"/>
+      <selection pane="bottomLeft" activeCell="I3" sqref="I3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -725,7 +740,7 @@
         <v>3</v>
       </c>
       <c r="E2" s="4" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F2" s="4" t="s">
         <v>27</v>
@@ -737,7 +752,7 @@
         <v>30</v>
       </c>
       <c r="I2" s="4" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="3" spans="1:9" ht="105" customHeight="1" x14ac:dyDescent="0.3">
@@ -745,16 +760,16 @@
         <v>10</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D3" s="3" t="s">
         <v>15</v>
       </c>
       <c r="E3" s="4" t="s">
-        <v>38</v>
+        <v>56</v>
       </c>
       <c r="F3" s="4" t="s">
         <v>29</v>
@@ -766,7 +781,7 @@
         <v>12</v>
       </c>
       <c r="I3" s="4" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
     </row>
     <row r="4" spans="1:9" ht="77.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -777,13 +792,13 @@
         <v>13</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="E4" s="4" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="F4" s="4" t="s">
         <v>27</v>
@@ -795,10 +810,10 @@
         <v>16</v>
       </c>
       <c r="I4" s="4" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
-    <row r="5" spans="1:9" ht="53.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:9" ht="78" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="3" t="s">
         <v>17</v>
       </c>
@@ -812,7 +827,7 @@
         <v>20</v>
       </c>
       <c r="E5" s="4" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F5" s="4" t="s">
         <v>21</v>
@@ -827,54 +842,58 @@
     </row>
     <row r="6" spans="1:9" ht="49.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="3" t="s">
-        <v>31</v>
+        <v>53</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D6" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="E6" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="F6" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="G6" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="H6" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="E6" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="F6" s="4" t="s">
-        <v>49</v>
-      </c>
-      <c r="G6" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="H6" s="3" t="s">
-        <v>36</v>
-      </c>
       <c r="I6" s="4" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
     </row>
     <row r="7" spans="1:9" ht="34.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="3" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="D7" s="3" t="s">
         <v>3</v>
       </c>
       <c r="E7" s="3"/>
-      <c r="F7" s="3"/>
-      <c r="G7" s="3"/>
+      <c r="F7" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="G7" s="3" t="s">
+        <v>55</v>
+      </c>
       <c r="H7" s="3" t="s">
         <v>12</v>
       </c>
       <c r="I7" s="4" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.15">
